--- a/public/uploads/template_import_barang(1).xlsx
+++ b/public/uploads/template_import_barang(1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="11560"/>
+    <workbookView windowWidth="28060" windowHeight="12200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>NO</t>
   </si>
@@ -40,10 +40,10 @@
     <t>JENIS SATUAN TERKECIL</t>
   </si>
   <si>
-    <t>JENIS</t>
-  </si>
-  <si>
-    <t>HARGA</t>
+    <t>KATEGORI</t>
+  </si>
+  <si>
+    <t>HARGA JUAL</t>
   </si>
   <si>
     <t>MARGIN</t>
@@ -52,6 +52,9 @@
     <t>UNTUK PENJAMIN</t>
   </si>
   <si>
+    <t>PBF</t>
+  </si>
+  <si>
     <t>OBAT</t>
   </si>
   <si>
@@ -73,6 +76,9 @@
     <t>umum</t>
   </si>
   <si>
+    <t>PERUSAHAAN A</t>
+  </si>
+  <si>
     <t>ALKES</t>
   </si>
   <si>
@@ -89,6 +95,9 @@
   </si>
   <si>
     <t>bpjs</t>
+  </si>
+  <si>
+    <t>PERUSAHAAN B</t>
   </si>
 </sst>
 </file>
@@ -97,9 +106,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -119,6 +128,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -126,9 +150,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -155,6 +202,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -164,15 +218,23 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,14 +247,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -201,31 +255,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,29 +270,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -271,19 +280,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,170 +464,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -476,6 +485,91 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,236 +599,167 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1056,10 +1081,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
@@ -1071,124 +1096,134 @@
     <col min="6" max="6" width="18.625" customWidth="1"/>
     <col min="7" max="7" width="26.1875" customWidth="1"/>
     <col min="8" max="8" width="23.6875" customWidth="1"/>
-    <col min="9" max="9" width="6.3125" customWidth="1"/>
+    <col min="9" max="9" width="7.03125" customWidth="1"/>
     <col min="10" max="10" width="7.5" customWidth="1"/>
     <col min="11" max="11" width="8.3125" customWidth="1"/>
     <col min="12" max="12" width="17.3125" customWidth="1"/>
+    <col min="13" max="13" width="17.3203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1">
+    <row r="2" spans="1:13">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1">
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2">
         <v>1</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="2">
+        <v>24000</v>
+      </c>
+      <c r="K2" s="2">
+        <v>100</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="1">
-        <v>24000</v>
-      </c>
-      <c r="K2" s="1">
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2">
+        <v>23000</v>
+      </c>
+      <c r="K3" s="2">
         <v>100</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="1">
-        <v>23000</v>
-      </c>
-      <c r="K3" s="1">
-        <v>100</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>24</v>
+      <c r="L3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
